--- a/data/cases-para.xlsx
+++ b/data/cases-para.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ90"/>
+  <dimension ref="A1:EQ94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28757,7 +28757,7 @@
         <v>146</v>
       </c>
       <c r="U64" t="n">
-        <v>828</v>
+        <v>1710</v>
       </c>
       <c r="V64" t="n">
         <v>19</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="EQ64" t="n">
-        <v>16295</v>
+        <v>17177</v>
       </c>
     </row>
     <row r="65">
@@ -35820,142 +35820,142 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13032</v>
+        <v>13339</v>
       </c>
       <c r="C80" t="n">
-        <v>536</v>
+        <v>741</v>
       </c>
       <c r="D80" t="n">
-        <v>2918</v>
+        <v>2987</v>
       </c>
       <c r="E80" t="n">
-        <v>830</v>
+        <v>917</v>
       </c>
       <c r="F80" t="n">
-        <v>169</v>
+        <v>335</v>
       </c>
       <c r="G80" t="n">
-        <v>2367</v>
+        <v>2773</v>
       </c>
       <c r="H80" t="n">
-        <v>1644</v>
+        <v>1655</v>
       </c>
       <c r="I80" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J80" t="n">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="K80" t="n">
-        <v>819</v>
+        <v>895</v>
       </c>
       <c r="L80" t="n">
-        <v>1227</v>
+        <v>1308</v>
       </c>
       <c r="M80" t="n">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="N80" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="O80" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P80" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Q80" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R80" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S80" t="n">
-        <v>1453</v>
+        <v>1532</v>
       </c>
       <c r="T80" t="n">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="U80" t="n">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W80" t="n">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="X80" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="Y80" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="n">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AA80" t="n">
         <v>38</v>
       </c>
       <c r="AB80" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AC80" t="n">
-        <v>859</v>
+        <v>907</v>
       </c>
       <c r="AD80" t="n">
-        <v>1033</v>
+        <v>1097</v>
       </c>
       <c r="AE80" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AF80" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG80" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AH80" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="AI80" t="n">
         <v>20</v>
       </c>
       <c r="AJ80" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK80" t="n">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AL80" t="n">
         <v>96</v>
       </c>
       <c r="AM80" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="AN80" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AO80" t="n">
         <v>27</v>
       </c>
       <c r="AP80" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AQ80" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR80" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS80" t="n">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="AT80" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AU80" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AV80" t="n">
         <v>65</v>
@@ -35964,100 +35964,100 @@
         <v>162</v>
       </c>
       <c r="AX80" t="n">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="AY80" t="n">
         <v>62</v>
       </c>
       <c r="AZ80" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="BA80" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="BB80" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="BC80" t="n">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="BD80" t="n">
         <v>102</v>
       </c>
       <c r="BE80" t="n">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="BF80" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BG80" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BH80" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BI80" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BJ80" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="BK80" t="n">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="BL80" t="n">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="BM80" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="BN80" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO80" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="BP80" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BQ80" t="n">
         <v>5</v>
       </c>
       <c r="BR80" t="n">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="BS80" t="n">
         <v>146</v>
       </c>
       <c r="BT80" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="BU80" t="n">
         <v>94</v>
       </c>
       <c r="BV80" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="BW80" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="BX80" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BY80" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="BZ80" t="n">
-        <v>671</v>
+        <v>733</v>
       </c>
       <c r="CA80" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="CB80" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="CC80" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="CD80" t="n">
         <v>717</v>
@@ -36066,31 +36066,31 @@
         <v>24</v>
       </c>
       <c r="CF80" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="CG80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CH80" t="n">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="CI80" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="CJ80" t="n">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="CK80" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CL80" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CM80" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="CN80" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="CO80" t="n">
         <v>10</v>
@@ -36099,121 +36099,121 @@
         <v>142</v>
       </c>
       <c r="CQ80" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="CR80" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="CS80" t="n">
         <v>124</v>
       </c>
       <c r="CT80" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="CU80" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="CV80" t="n">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="CW80" t="n">
         <v>11</v>
       </c>
       <c r="CX80" t="n">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="CY80" t="n">
         <v>26</v>
       </c>
       <c r="CZ80" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="DA80" t="n">
         <v>2</v>
       </c>
       <c r="DB80" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DC80" t="n">
         <v>19</v>
       </c>
       <c r="DD80" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="DE80" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="DF80" t="n">
         <v>12</v>
       </c>
       <c r="DG80" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="DH80" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="DI80" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="DJ80" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="DK80" t="n">
         <v>37</v>
       </c>
       <c r="DL80" t="n">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="DM80" t="n">
         <v>5</v>
       </c>
       <c r="DN80" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="DO80" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="DP80" t="n">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="DQ80" t="n">
         <v>100</v>
       </c>
       <c r="DR80" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DS80" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="DT80" t="n">
         <v>30</v>
       </c>
       <c r="DU80" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DV80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DW80" t="n">
         <v>32</v>
       </c>
       <c r="DX80" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="DY80" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="DZ80" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="EA80" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="EB80" t="n">
         <v>69</v>
       </c>
       <c r="EC80" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="ED80" t="n">
         <v>48</v>
@@ -36222,7 +36222,7 @@
         <v>2</v>
       </c>
       <c r="EF80" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="EG80" t="n">
         <v>18</v>
@@ -36231,31 +36231,31 @@
         <v>36</v>
       </c>
       <c r="EI80" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="EJ80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EK80" t="n">
         <v>9</v>
       </c>
       <c r="EL80" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="EM80" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="EN80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EO80" t="n">
         <v>1</v>
       </c>
       <c r="EP80" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EQ80" t="n">
-        <v>48049</v>
+        <v>49473</v>
       </c>
     </row>
     <row r="81">
@@ -36265,400 +36265,400 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>13032</v>
+        <v>14040</v>
       </c>
       <c r="C81" t="n">
-        <v>536</v>
+        <v>796</v>
       </c>
       <c r="D81" t="n">
-        <v>2918</v>
+        <v>3112</v>
       </c>
       <c r="E81" t="n">
-        <v>830</v>
+        <v>958</v>
       </c>
       <c r="F81" t="n">
-        <v>169</v>
+        <v>595</v>
       </c>
       <c r="G81" t="n">
-        <v>2367</v>
+        <v>3418</v>
       </c>
       <c r="H81" t="n">
-        <v>1644</v>
+        <v>1710</v>
       </c>
       <c r="I81" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="J81" t="n">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="K81" t="n">
-        <v>819</v>
+        <v>958</v>
       </c>
       <c r="L81" t="n">
-        <v>1227</v>
+        <v>1364</v>
       </c>
       <c r="M81" t="n">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="N81" t="n">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="O81" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="Q81" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R81" t="n">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="S81" t="n">
-        <v>1453</v>
+        <v>1660</v>
       </c>
       <c r="T81" t="n">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="U81" t="n">
-        <v>4487</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="W81" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="X81" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="Y81" t="n">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="Z81" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="AA81" t="n">
         <v>38</v>
       </c>
       <c r="AB81" t="n">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="AC81" t="n">
-        <v>859</v>
+        <v>1038</v>
       </c>
       <c r="AD81" t="n">
-        <v>1033</v>
+        <v>1183</v>
       </c>
       <c r="AE81" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AF81" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG81" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AH81" t="n">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AI81" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="AJ81" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AK81" t="n">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="AL81" t="n">
         <v>96</v>
       </c>
       <c r="AM81" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AN81" t="n">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="AO81" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP81" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AQ81" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AR81" t="n">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AS81" t="n">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="AT81" t="n">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="AU81" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AV81" t="n">
         <v>65</v>
       </c>
       <c r="AW81" t="n">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="AX81" t="n">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="AY81" t="n">
         <v>62</v>
       </c>
       <c r="AZ81" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="BA81" t="n">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="BB81" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="BC81" t="n">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="BD81" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BE81" t="n">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="BF81" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BG81" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="BH81" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BI81" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BJ81" t="n">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="BK81" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="BL81" t="n">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="BM81" t="n">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="BN81" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="BO81" t="n">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="BP81" t="n">
+        <v>183</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>277</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>165</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>171</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>110</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>148</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>119</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>231</v>
+      </c>
+      <c r="BY81" t="n">
+        <v>60</v>
+      </c>
+      <c r="BZ81" t="n">
+        <v>938</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>167</v>
+      </c>
+      <c r="CB81" t="n">
+        <v>196</v>
+      </c>
+      <c r="CC81" t="n">
+        <v>319</v>
+      </c>
+      <c r="CD81" t="n">
+        <v>757</v>
+      </c>
+      <c r="CE81" t="n">
+        <v>35</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>98</v>
+      </c>
+      <c r="CG81" t="n">
+        <v>17</v>
+      </c>
+      <c r="CH81" t="n">
+        <v>731</v>
+      </c>
+      <c r="CI81" t="n">
+        <v>142</v>
+      </c>
+      <c r="CJ81" t="n">
+        <v>399</v>
+      </c>
+      <c r="CK81" t="n">
+        <v>237</v>
+      </c>
+      <c r="CL81" t="n">
+        <v>57</v>
+      </c>
+      <c r="CM81" t="n">
+        <v>123</v>
+      </c>
+      <c r="CN81" t="n">
         <v>150</v>
-      </c>
-      <c r="BQ81" t="n">
-        <v>5</v>
-      </c>
-      <c r="BR81" t="n">
-        <v>210</v>
-      </c>
-      <c r="BS81" t="n">
-        <v>146</v>
-      </c>
-      <c r="BT81" t="n">
-        <v>159</v>
-      </c>
-      <c r="BU81" t="n">
-        <v>94</v>
-      </c>
-      <c r="BV81" t="n">
-        <v>134</v>
-      </c>
-      <c r="BW81" t="n">
-        <v>111</v>
-      </c>
-      <c r="BX81" t="n">
-        <v>210</v>
-      </c>
-      <c r="BY81" t="n">
-        <v>49</v>
-      </c>
-      <c r="BZ81" t="n">
-        <v>671</v>
-      </c>
-      <c r="CA81" t="n">
-        <v>113</v>
-      </c>
-      <c r="CB81" t="n">
-        <v>184</v>
-      </c>
-      <c r="CC81" t="n">
-        <v>292</v>
-      </c>
-      <c r="CD81" t="n">
-        <v>717</v>
-      </c>
-      <c r="CE81" t="n">
-        <v>24</v>
-      </c>
-      <c r="CF81" t="n">
-        <v>96</v>
-      </c>
-      <c r="CG81" t="n">
-        <v>16</v>
-      </c>
-      <c r="CH81" t="n">
-        <v>704</v>
-      </c>
-      <c r="CI81" t="n">
-        <v>130</v>
-      </c>
-      <c r="CJ81" t="n">
-        <v>366</v>
-      </c>
-      <c r="CK81" t="n">
-        <v>234</v>
-      </c>
-      <c r="CL81" t="n">
-        <v>55</v>
-      </c>
-      <c r="CM81" t="n">
-        <v>107</v>
-      </c>
-      <c r="CN81" t="n">
-        <v>109</v>
       </c>
       <c r="CO81" t="n">
         <v>10</v>
       </c>
       <c r="CP81" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CQ81" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="CR81" t="n">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="CS81" t="n">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="CT81" t="n">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="CU81" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="CV81" t="n">
-        <v>623</v>
+        <v>731</v>
       </c>
       <c r="CW81" t="n">
         <v>11</v>
       </c>
       <c r="CX81" t="n">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="CY81" t="n">
         <v>26</v>
       </c>
       <c r="CZ81" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="DA81" t="n">
         <v>2</v>
       </c>
       <c r="DB81" t="n">
+        <v>24</v>
+      </c>
+      <c r="DC81" t="n">
         <v>20</v>
       </c>
-      <c r="DC81" t="n">
-        <v>19</v>
-      </c>
       <c r="DD81" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="DE81" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="DF81" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="DG81" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="DH81" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="DI81" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="DJ81" t="n">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="DK81" t="n">
         <v>37</v>
       </c>
       <c r="DL81" t="n">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="DM81" t="n">
         <v>5</v>
       </c>
       <c r="DN81" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="DO81" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="DP81" t="n">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="DQ81" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="DR81" t="n">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="DS81" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="DT81" t="n">
         <v>30</v>
       </c>
       <c r="DU81" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="DV81" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="DW81" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DX81" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="DY81" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="DZ81" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="EA81" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="EB81" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="EC81" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="ED81" t="n">
         <v>48</v>
@@ -36667,7 +36667,7 @@
         <v>2</v>
       </c>
       <c r="EF81" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="EG81" t="n">
         <v>18</v>
@@ -36676,31 +36676,31 @@
         <v>36</v>
       </c>
       <c r="EI81" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="EJ81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EK81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="EL81" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="EM81" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="EN81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="EO81" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="EP81" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="EQ81" t="n">
-        <v>50960</v>
+        <v>53860</v>
       </c>
     </row>
     <row r="82">
@@ -40708,6 +40708,1786 @@
         <v>69224</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>16255</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2207</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3598</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1270</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1069</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5793</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2060</v>
+      </c>
+      <c r="I91" t="n">
+        <v>541</v>
+      </c>
+      <c r="J91" t="n">
+        <v>792</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1173</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1560</v>
+      </c>
+      <c r="M91" t="n">
+        <v>760</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1178</v>
+      </c>
+      <c r="O91" t="n">
+        <v>72</v>
+      </c>
+      <c r="P91" t="n">
+        <v>186</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>307</v>
+      </c>
+      <c r="R91" t="n">
+        <v>225</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2267</v>
+      </c>
+      <c r="T91" t="n">
+        <v>313</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>225</v>
+      </c>
+      <c r="W91" t="n">
+        <v>182</v>
+      </c>
+      <c r="X91" t="n">
+        <v>182</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>711</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>542</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>370</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1624</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>101</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>198</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>290</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>58</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>342</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>105</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>312</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>226</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>246</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>149</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>161</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>165</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>359</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>302</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>218</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>272</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>813</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>239</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>96</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>384</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>137</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>418</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>148</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>123</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>101</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>183</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>490</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>681</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>256</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>473</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>302</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>389</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>211</v>
+      </c>
+      <c r="BT91" t="n">
+        <v>229</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>141</v>
+      </c>
+      <c r="BV91" t="n">
+        <v>276</v>
+      </c>
+      <c r="BW91" t="n">
+        <v>178</v>
+      </c>
+      <c r="BX91" t="n">
+        <v>389</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>79</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>1059</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>226</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>234</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>385</v>
+      </c>
+      <c r="CD91" t="n">
+        <v>810</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>46</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>122</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>32</v>
+      </c>
+      <c r="CH91" t="n">
+        <v>771</v>
+      </c>
+      <c r="CI91" t="n">
+        <v>221</v>
+      </c>
+      <c r="CJ91" t="n">
+        <v>440</v>
+      </c>
+      <c r="CK91" t="n">
+        <v>244</v>
+      </c>
+      <c r="CL91" t="n">
+        <v>61</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>147</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>169</v>
+      </c>
+      <c r="CO91" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP91" t="n">
+        <v>211</v>
+      </c>
+      <c r="CQ91" t="n">
+        <v>175</v>
+      </c>
+      <c r="CR91" t="n">
+        <v>461</v>
+      </c>
+      <c r="CS91" t="n">
+        <v>263</v>
+      </c>
+      <c r="CT91" t="n">
+        <v>224</v>
+      </c>
+      <c r="CU91" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV91" t="n">
+        <v>1090</v>
+      </c>
+      <c r="CW91" t="n">
+        <v>29</v>
+      </c>
+      <c r="CX91" t="n">
+        <v>556</v>
+      </c>
+      <c r="CY91" t="n">
+        <v>47</v>
+      </c>
+      <c r="CZ91" t="n">
+        <v>67</v>
+      </c>
+      <c r="DA91" t="n">
+        <v>28</v>
+      </c>
+      <c r="DB91" t="n">
+        <v>44</v>
+      </c>
+      <c r="DC91" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD91" t="n">
+        <v>126</v>
+      </c>
+      <c r="DE91" t="n">
+        <v>115</v>
+      </c>
+      <c r="DF91" t="n">
+        <v>110</v>
+      </c>
+      <c r="DG91" t="n">
+        <v>249</v>
+      </c>
+      <c r="DH91" t="n">
+        <v>103</v>
+      </c>
+      <c r="DI91" t="n">
+        <v>95</v>
+      </c>
+      <c r="DJ91" t="n">
+        <v>190</v>
+      </c>
+      <c r="DK91" t="n">
+        <v>60</v>
+      </c>
+      <c r="DL91" t="n">
+        <v>287</v>
+      </c>
+      <c r="DM91" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN91" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO91" t="n">
+        <v>184</v>
+      </c>
+      <c r="DP91" t="n">
+        <v>578</v>
+      </c>
+      <c r="DQ91" t="n">
+        <v>167</v>
+      </c>
+      <c r="DR91" t="n">
+        <v>287</v>
+      </c>
+      <c r="DS91" t="n">
+        <v>53</v>
+      </c>
+      <c r="DT91" t="n">
+        <v>59</v>
+      </c>
+      <c r="DU91" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV91" t="n">
+        <v>14</v>
+      </c>
+      <c r="DW91" t="n">
+        <v>79</v>
+      </c>
+      <c r="DX91" t="n">
+        <v>59</v>
+      </c>
+      <c r="DY91" t="n">
+        <v>140</v>
+      </c>
+      <c r="DZ91" t="n">
+        <v>366</v>
+      </c>
+      <c r="EA91" t="n">
+        <v>149</v>
+      </c>
+      <c r="EB91" t="n">
+        <v>96</v>
+      </c>
+      <c r="EC91" t="n">
+        <v>110</v>
+      </c>
+      <c r="ED91" t="n">
+        <v>50</v>
+      </c>
+      <c r="EE91" t="n">
+        <v>29</v>
+      </c>
+      <c r="EF91" t="n">
+        <v>149</v>
+      </c>
+      <c r="EG91" t="n">
+        <v>18</v>
+      </c>
+      <c r="EH91" t="n">
+        <v>57</v>
+      </c>
+      <c r="EI91" t="n">
+        <v>146</v>
+      </c>
+      <c r="EJ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="EK91" t="n">
+        <v>16</v>
+      </c>
+      <c r="EL91" t="n">
+        <v>46</v>
+      </c>
+      <c r="EM91" t="n">
+        <v>81</v>
+      </c>
+      <c r="EN91" t="n">
+        <v>34</v>
+      </c>
+      <c r="EO91" t="n">
+        <v>37</v>
+      </c>
+      <c r="EP91" t="n">
+        <v>50</v>
+      </c>
+      <c r="EQ91" t="n">
+        <v>71243</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>16477</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2304</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3665</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1290</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1096</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6246</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2180</v>
+      </c>
+      <c r="I92" t="n">
+        <v>548</v>
+      </c>
+      <c r="J92" t="n">
+        <v>815</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1316</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1645</v>
+      </c>
+      <c r="M92" t="n">
+        <v>832</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1186</v>
+      </c>
+      <c r="O92" t="n">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>310</v>
+      </c>
+      <c r="R92" t="n">
+        <v>226</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2415</v>
+      </c>
+      <c r="T92" t="n">
+        <v>314</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>233</v>
+      </c>
+      <c r="W92" t="n">
+        <v>183</v>
+      </c>
+      <c r="X92" t="n">
+        <v>213</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>756</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>574</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>370</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1308</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>1696</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>103</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>203</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>305</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>355</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>105</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>316</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>254</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>266</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>163</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>394</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>302</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>225</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>277</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>885</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>267</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>96</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>385</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>137</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>453</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>163</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>125</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>108</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>674</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>204</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>518</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>691</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>262</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>476</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>307</v>
+      </c>
+      <c r="BQ92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>395</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>211</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>230</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>142</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>318</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>186</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>396</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>87</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>1117</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>234</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>237</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>395</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>810</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>48</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>124</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>33</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>807</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>224</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>457</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>246</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>61</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>147</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>172</v>
+      </c>
+      <c r="CO92" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP92" t="n">
+        <v>249</v>
+      </c>
+      <c r="CQ92" t="n">
+        <v>180</v>
+      </c>
+      <c r="CR92" t="n">
+        <v>470</v>
+      </c>
+      <c r="CS92" t="n">
+        <v>279</v>
+      </c>
+      <c r="CT92" t="n">
+        <v>290</v>
+      </c>
+      <c r="CU92" t="n">
+        <v>87</v>
+      </c>
+      <c r="CV92" t="n">
+        <v>1120</v>
+      </c>
+      <c r="CW92" t="n">
+        <v>29</v>
+      </c>
+      <c r="CX92" t="n">
+        <v>560</v>
+      </c>
+      <c r="CY92" t="n">
+        <v>47</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>77</v>
+      </c>
+      <c r="DA92" t="n">
+        <v>32</v>
+      </c>
+      <c r="DB92" t="n">
+        <v>52</v>
+      </c>
+      <c r="DC92" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD92" t="n">
+        <v>132</v>
+      </c>
+      <c r="DE92" t="n">
+        <v>124</v>
+      </c>
+      <c r="DF92" t="n">
+        <v>114</v>
+      </c>
+      <c r="DG92" t="n">
+        <v>283</v>
+      </c>
+      <c r="DH92" t="n">
+        <v>103</v>
+      </c>
+      <c r="DI92" t="n">
+        <v>96</v>
+      </c>
+      <c r="DJ92" t="n">
+        <v>195</v>
+      </c>
+      <c r="DK92" t="n">
+        <v>60</v>
+      </c>
+      <c r="DL92" t="n">
+        <v>320</v>
+      </c>
+      <c r="DM92" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN92" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO92" t="n">
+        <v>214</v>
+      </c>
+      <c r="DP92" t="n">
+        <v>591</v>
+      </c>
+      <c r="DQ92" t="n">
+        <v>175</v>
+      </c>
+      <c r="DR92" t="n">
+        <v>304</v>
+      </c>
+      <c r="DS92" t="n">
+        <v>54</v>
+      </c>
+      <c r="DT92" t="n">
+        <v>67</v>
+      </c>
+      <c r="DU92" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV92" t="n">
+        <v>14</v>
+      </c>
+      <c r="DW92" t="n">
+        <v>95</v>
+      </c>
+      <c r="DX92" t="n">
+        <v>72</v>
+      </c>
+      <c r="DY92" t="n">
+        <v>143</v>
+      </c>
+      <c r="DZ92" t="n">
+        <v>403</v>
+      </c>
+      <c r="EA92" t="n">
+        <v>206</v>
+      </c>
+      <c r="EB92" t="n">
+        <v>96</v>
+      </c>
+      <c r="EC92" t="n">
+        <v>113</v>
+      </c>
+      <c r="ED92" t="n">
+        <v>50</v>
+      </c>
+      <c r="EE92" t="n">
+        <v>33</v>
+      </c>
+      <c r="EF92" t="n">
+        <v>159</v>
+      </c>
+      <c r="EG92" t="n">
+        <v>18</v>
+      </c>
+      <c r="EH92" t="n">
+        <v>99</v>
+      </c>
+      <c r="EI92" t="n">
+        <v>146</v>
+      </c>
+      <c r="EJ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="EK92" t="n">
+        <v>16</v>
+      </c>
+      <c r="EL92" t="n">
+        <v>46</v>
+      </c>
+      <c r="EM92" t="n">
+        <v>89</v>
+      </c>
+      <c r="EN92" t="n">
+        <v>44</v>
+      </c>
+      <c r="EO92" t="n">
+        <v>46</v>
+      </c>
+      <c r="EP92" t="n">
+        <v>56</v>
+      </c>
+      <c r="EQ92" t="n">
+        <v>74192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>16701</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2431</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6644</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2182</v>
+      </c>
+      <c r="I93" t="n">
+        <v>550</v>
+      </c>
+      <c r="J93" t="n">
+        <v>842</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1384</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1673</v>
+      </c>
+      <c r="M93" t="n">
+        <v>929</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1190</v>
+      </c>
+      <c r="O93" t="n">
+        <v>74</v>
+      </c>
+      <c r="P93" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>311</v>
+      </c>
+      <c r="R93" t="n">
+        <v>233</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2526</v>
+      </c>
+      <c r="T93" t="n">
+        <v>315</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>249</v>
+      </c>
+      <c r="W93" t="n">
+        <v>187</v>
+      </c>
+      <c r="X93" t="n">
+        <v>213</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>770</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>596</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>379</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>1764</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>107</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>96</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>203</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>330</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>355</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>105</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>316</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>262</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>289</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>155</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>163</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>412</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>320</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>233</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>302</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>904</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>267</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>96</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>387</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>137</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>175</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>125</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>199</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>680</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>205</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>528</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>720</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>262</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>476</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>315</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>395</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>225</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>242</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>146</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>318</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>188</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>397</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>91</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>1137</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>241</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>267</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>400</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>810</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>48</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>138</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>37</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>829</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>241</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>457</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>246</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>61</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>151</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>172</v>
+      </c>
+      <c r="CO93" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP93" t="n">
+        <v>285</v>
+      </c>
+      <c r="CQ93" t="n">
+        <v>189</v>
+      </c>
+      <c r="CR93" t="n">
+        <v>483</v>
+      </c>
+      <c r="CS93" t="n">
+        <v>286</v>
+      </c>
+      <c r="CT93" t="n">
+        <v>292</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>88</v>
+      </c>
+      <c r="CV93" t="n">
+        <v>1120</v>
+      </c>
+      <c r="CW93" t="n">
+        <v>29</v>
+      </c>
+      <c r="CX93" t="n">
+        <v>597</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>47</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>83</v>
+      </c>
+      <c r="DA93" t="n">
+        <v>36</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>82</v>
+      </c>
+      <c r="DC93" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD93" t="n">
+        <v>135</v>
+      </c>
+      <c r="DE93" t="n">
+        <v>141</v>
+      </c>
+      <c r="DF93" t="n">
+        <v>119</v>
+      </c>
+      <c r="DG93" t="n">
+        <v>287</v>
+      </c>
+      <c r="DH93" t="n">
+        <v>105</v>
+      </c>
+      <c r="DI93" t="n">
+        <v>101</v>
+      </c>
+      <c r="DJ93" t="n">
+        <v>195</v>
+      </c>
+      <c r="DK93" t="n">
+        <v>66</v>
+      </c>
+      <c r="DL93" t="n">
+        <v>327</v>
+      </c>
+      <c r="DM93" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN93" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO93" t="n">
+        <v>230</v>
+      </c>
+      <c r="DP93" t="n">
+        <v>597</v>
+      </c>
+      <c r="DQ93" t="n">
+        <v>189</v>
+      </c>
+      <c r="DR93" t="n">
+        <v>314</v>
+      </c>
+      <c r="DS93" t="n">
+        <v>58</v>
+      </c>
+      <c r="DT93" t="n">
+        <v>67</v>
+      </c>
+      <c r="DU93" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV93" t="n">
+        <v>14</v>
+      </c>
+      <c r="DW93" t="n">
+        <v>110</v>
+      </c>
+      <c r="DX93" t="n">
+        <v>76</v>
+      </c>
+      <c r="DY93" t="n">
+        <v>145</v>
+      </c>
+      <c r="DZ93" t="n">
+        <v>405</v>
+      </c>
+      <c r="EA93" t="n">
+        <v>258</v>
+      </c>
+      <c r="EB93" t="n">
+        <v>99</v>
+      </c>
+      <c r="EC93" t="n">
+        <v>116</v>
+      </c>
+      <c r="ED93" t="n">
+        <v>51</v>
+      </c>
+      <c r="EE93" t="n">
+        <v>33</v>
+      </c>
+      <c r="EF93" t="n">
+        <v>167</v>
+      </c>
+      <c r="EG93" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH93" t="n">
+        <v>122</v>
+      </c>
+      <c r="EI93" t="n">
+        <v>166</v>
+      </c>
+      <c r="EJ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="EK93" t="n">
+        <v>20</v>
+      </c>
+      <c r="EL93" t="n">
+        <v>50</v>
+      </c>
+      <c r="EM93" t="n">
+        <v>101</v>
+      </c>
+      <c r="EN93" t="n">
+        <v>46</v>
+      </c>
+      <c r="EO93" t="n">
+        <v>53</v>
+      </c>
+      <c r="EP93" t="n">
+        <v>68</v>
+      </c>
+      <c r="EQ93" t="n">
+        <v>76623</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>16701</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2431</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3703</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1306</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6644</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2182</v>
+      </c>
+      <c r="I94" t="n">
+        <v>550</v>
+      </c>
+      <c r="J94" t="n">
+        <v>842</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1384</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1673</v>
+      </c>
+      <c r="M94" t="n">
+        <v>929</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1190</v>
+      </c>
+      <c r="O94" t="n">
+        <v>74</v>
+      </c>
+      <c r="P94" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>311</v>
+      </c>
+      <c r="R94" t="n">
+        <v>233</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2526</v>
+      </c>
+      <c r="T94" t="n">
+        <v>315</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>249</v>
+      </c>
+      <c r="W94" t="n">
+        <v>187</v>
+      </c>
+      <c r="X94" t="n">
+        <v>213</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>770</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>596</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>379</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1764</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>107</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>96</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>203</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>330</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>355</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>105</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>316</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>262</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>289</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>155</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>163</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>412</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>320</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>233</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>302</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>904</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>267</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>374</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>96</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>387</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>137</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>175</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>125</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>199</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>680</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>205</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>528</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>720</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>262</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>476</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>315</v>
+      </c>
+      <c r="BQ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>395</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>225</v>
+      </c>
+      <c r="BT94" t="n">
+        <v>242</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>146</v>
+      </c>
+      <c r="BV94" t="n">
+        <v>318</v>
+      </c>
+      <c r="BW94" t="n">
+        <v>188</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>397</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>91</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>1137</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>241</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>267</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>400</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>810</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>48</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>138</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>37</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>829</v>
+      </c>
+      <c r="CI94" t="n">
+        <v>241</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>457</v>
+      </c>
+      <c r="CK94" t="n">
+        <v>246</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>61</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>151</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>172</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>285</v>
+      </c>
+      <c r="CQ94" t="n">
+        <v>189</v>
+      </c>
+      <c r="CR94" t="n">
+        <v>483</v>
+      </c>
+      <c r="CS94" t="n">
+        <v>286</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>292</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>88</v>
+      </c>
+      <c r="CV94" t="n">
+        <v>1120</v>
+      </c>
+      <c r="CW94" t="n">
+        <v>29</v>
+      </c>
+      <c r="CX94" t="n">
+        <v>597</v>
+      </c>
+      <c r="CY94" t="n">
+        <v>47</v>
+      </c>
+      <c r="CZ94" t="n">
+        <v>83</v>
+      </c>
+      <c r="DA94" t="n">
+        <v>36</v>
+      </c>
+      <c r="DB94" t="n">
+        <v>82</v>
+      </c>
+      <c r="DC94" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD94" t="n">
+        <v>135</v>
+      </c>
+      <c r="DE94" t="n">
+        <v>141</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>119</v>
+      </c>
+      <c r="DG94" t="n">
+        <v>287</v>
+      </c>
+      <c r="DH94" t="n">
+        <v>105</v>
+      </c>
+      <c r="DI94" t="n">
+        <v>101</v>
+      </c>
+      <c r="DJ94" t="n">
+        <v>195</v>
+      </c>
+      <c r="DK94" t="n">
+        <v>66</v>
+      </c>
+      <c r="DL94" t="n">
+        <v>327</v>
+      </c>
+      <c r="DM94" t="n">
+        <v>9</v>
+      </c>
+      <c r="DN94" t="n">
+        <v>99</v>
+      </c>
+      <c r="DO94" t="n">
+        <v>230</v>
+      </c>
+      <c r="DP94" t="n">
+        <v>597</v>
+      </c>
+      <c r="DQ94" t="n">
+        <v>189</v>
+      </c>
+      <c r="DR94" t="n">
+        <v>314</v>
+      </c>
+      <c r="DS94" t="n">
+        <v>58</v>
+      </c>
+      <c r="DT94" t="n">
+        <v>67</v>
+      </c>
+      <c r="DU94" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV94" t="n">
+        <v>14</v>
+      </c>
+      <c r="DW94" t="n">
+        <v>110</v>
+      </c>
+      <c r="DX94" t="n">
+        <v>76</v>
+      </c>
+      <c r="DY94" t="n">
+        <v>145</v>
+      </c>
+      <c r="DZ94" t="n">
+        <v>405</v>
+      </c>
+      <c r="EA94" t="n">
+        <v>258</v>
+      </c>
+      <c r="EB94" t="n">
+        <v>99</v>
+      </c>
+      <c r="EC94" t="n">
+        <v>116</v>
+      </c>
+      <c r="ED94" t="n">
+        <v>51</v>
+      </c>
+      <c r="EE94" t="n">
+        <v>33</v>
+      </c>
+      <c r="EF94" t="n">
+        <v>167</v>
+      </c>
+      <c r="EG94" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH94" t="n">
+        <v>122</v>
+      </c>
+      <c r="EI94" t="n">
+        <v>166</v>
+      </c>
+      <c r="EJ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="EK94" t="n">
+        <v>20</v>
+      </c>
+      <c r="EL94" t="n">
+        <v>50</v>
+      </c>
+      <c r="EM94" t="n">
+        <v>101</v>
+      </c>
+      <c r="EN94" t="n">
+        <v>46</v>
+      </c>
+      <c r="EO94" t="n">
+        <v>53</v>
+      </c>
+      <c r="EP94" t="n">
+        <v>68</v>
+      </c>
+      <c r="EQ94" t="n">
+        <v>76623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cases-para.xlsx
+++ b/data/cases-para.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ94"/>
+  <dimension ref="A1:EQ98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42050,67 +42050,67 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>16701</v>
+        <v>17082</v>
       </c>
       <c r="C94" t="n">
-        <v>2431</v>
+        <v>2547</v>
       </c>
       <c r="D94" t="n">
-        <v>3703</v>
+        <v>3769</v>
       </c>
       <c r="E94" t="n">
-        <v>1306</v>
+        <v>1402</v>
       </c>
       <c r="F94" t="n">
-        <v>1175</v>
+        <v>1407</v>
       </c>
       <c r="G94" t="n">
-        <v>6644</v>
+        <v>7278</v>
       </c>
       <c r="H94" t="n">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="I94" t="n">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="J94" t="n">
-        <v>842</v>
+        <v>870</v>
       </c>
       <c r="K94" t="n">
-        <v>1384</v>
+        <v>1412</v>
       </c>
       <c r="L94" t="n">
-        <v>1673</v>
+        <v>1761</v>
       </c>
       <c r="M94" t="n">
-        <v>929</v>
+        <v>1007</v>
       </c>
       <c r="N94" t="n">
         <v>1190</v>
       </c>
       <c r="O94" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P94" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q94" t="n">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="R94" t="n">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="S94" t="n">
-        <v>2526</v>
+        <v>2627</v>
       </c>
       <c r="T94" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W94" t="n">
         <v>187</v>
@@ -42119,40 +42119,40 @@
         <v>213</v>
       </c>
       <c r="Y94" t="n">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="Z94" t="n">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c r="AA94" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AB94" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC94" t="n">
-        <v>1400</v>
+        <v>1482</v>
       </c>
       <c r="AD94" t="n">
-        <v>1764</v>
+        <v>1806</v>
       </c>
       <c r="AE94" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF94" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AG94" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH94" t="n">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="AI94" t="n">
         <v>59</v>
       </c>
       <c r="AJ94" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AK94" t="n">
         <v>355</v>
@@ -42164,25 +42164,25 @@
         <v>316</v>
       </c>
       <c r="AN94" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AO94" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AP94" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AQ94" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AR94" t="n">
         <v>168</v>
       </c>
       <c r="AS94" t="n">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AT94" t="n">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="AU94" t="n">
         <v>233</v>
@@ -42191,301 +42191,2081 @@
         <v>80</v>
       </c>
       <c r="AW94" t="n">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="AX94" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="AY94" t="n">
         <v>70</v>
       </c>
       <c r="AZ94" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="BA94" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BB94" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BC94" t="n">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="BD94" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="BE94" t="n">
         <v>503</v>
       </c>
       <c r="BF94" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="BG94" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="BH94" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BI94" t="n">
         <v>199</v>
       </c>
       <c r="BJ94" t="n">
-        <v>680</v>
+        <v>721</v>
       </c>
       <c r="BK94" t="n">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="BL94" t="n">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="BM94" t="n">
-        <v>720</v>
+        <v>898</v>
       </c>
       <c r="BN94" t="n">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="BO94" t="n">
         <v>476</v>
       </c>
       <c r="BP94" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="BQ94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BR94" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="BS94" t="n">
         <v>225</v>
       </c>
       <c r="BT94" t="n">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="BU94" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BV94" t="n">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="BW94" t="n">
         <v>188</v>
       </c>
       <c r="BX94" t="n">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="BY94" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BZ94" t="n">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="CA94" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="CB94" t="n">
         <v>267</v>
       </c>
       <c r="CC94" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="CD94" t="n">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="CE94" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CF94" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="CG94" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="CH94" t="n">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="CI94" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CJ94" t="n">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="CK94" t="n">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="CL94" t="n">
         <v>61</v>
       </c>
       <c r="CM94" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="CN94" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CO94" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="CP94" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="CQ94" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="CR94" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="CS94" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="CT94" t="n">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="CU94" t="n">
         <v>88</v>
       </c>
       <c r="CV94" t="n">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="CW94" t="n">
         <v>29</v>
       </c>
       <c r="CX94" t="n">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="CY94" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="CZ94" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="DA94" t="n">
         <v>36</v>
       </c>
       <c r="DB94" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="DC94" t="n">
         <v>27</v>
       </c>
       <c r="DD94" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DE94" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="DF94" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="DG94" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="DH94" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="DI94" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="DJ94" t="n">
         <v>195</v>
       </c>
       <c r="DK94" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="DL94" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="DM94" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="DN94" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="DO94" t="n">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="DP94" t="n">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="DQ94" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DR94" t="n">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="DS94" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DT94" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="DU94" t="n">
         <v>25</v>
       </c>
       <c r="DV94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DW94" t="n">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="DX94" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DY94" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="DZ94" t="n">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="EA94" t="n">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="EB94" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="EC94" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="ED94" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="EE94" t="n">
         <v>33</v>
       </c>
       <c r="EF94" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="EG94" t="n">
         <v>24</v>
       </c>
       <c r="EH94" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="EI94" t="n">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="EJ94" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="EK94" t="n">
         <v>20</v>
       </c>
       <c r="EL94" t="n">
+        <v>56</v>
+      </c>
+      <c r="EM94" t="n">
+        <v>128</v>
+      </c>
+      <c r="EN94" t="n">
         <v>50</v>
       </c>
-      <c r="EM94" t="n">
+      <c r="EO94" t="n">
+        <v>62</v>
+      </c>
+      <c r="EP94" t="n">
+        <v>71</v>
+      </c>
+      <c r="EQ94" t="n">
+        <v>80072</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>17339</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2556</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3816</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1413</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1659</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7766</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2201</v>
+      </c>
+      <c r="I95" t="n">
+        <v>573</v>
+      </c>
+      <c r="J95" t="n">
+        <v>897</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1828</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1090</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1196</v>
+      </c>
+      <c r="O95" t="n">
+        <v>81</v>
+      </c>
+      <c r="P95" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>352</v>
+      </c>
+      <c r="R95" t="n">
+        <v>255</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2687</v>
+      </c>
+      <c r="T95" t="n">
+        <v>319</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>250</v>
+      </c>
+      <c r="W95" t="n">
+        <v>187</v>
+      </c>
+      <c r="X95" t="n">
+        <v>222</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>804</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>646</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>105</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>380</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1859</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>114</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>122</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>209</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>419</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>362</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>107</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>354</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>282</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>317</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>157</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>166</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>169</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>474</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>342</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>235</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>412</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>928</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>281</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>492</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>98</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>421</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>153</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>46</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>193</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>130</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>206</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>735</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>226</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>564</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>955</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>277</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>477</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>325</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>429</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>228</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>368</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>151</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>383</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>208</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>422</v>
+      </c>
+      <c r="BY95" t="n">
         <v>101</v>
       </c>
-      <c r="EN94" t="n">
+      <c r="BZ95" t="n">
+        <v>1170</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>252</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>308</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>426</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>818</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>58</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>148</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>868</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>242</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>476</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>292</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>61</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>155</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>176</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>336</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>200</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>496</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>299</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>332</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>89</v>
+      </c>
+      <c r="CV95" t="n">
+        <v>1126</v>
+      </c>
+      <c r="CW95" t="n">
+        <v>39</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>650</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>53</v>
+      </c>
+      <c r="CZ95" t="n">
+        <v>93</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>47</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>99</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD95" t="n">
+        <v>153</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>174</v>
+      </c>
+      <c r="DF95" t="n">
+        <v>121</v>
+      </c>
+      <c r="DG95" t="n">
+        <v>316</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>109</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>114</v>
+      </c>
+      <c r="DJ95" t="n">
+        <v>203</v>
+      </c>
+      <c r="DK95" t="n">
+        <v>139</v>
+      </c>
+      <c r="DL95" t="n">
+        <v>346</v>
+      </c>
+      <c r="DM95" t="n">
+        <v>19</v>
+      </c>
+      <c r="DN95" t="n">
+        <v>101</v>
+      </c>
+      <c r="DO95" t="n">
+        <v>250</v>
+      </c>
+      <c r="DP95" t="n">
+        <v>616</v>
+      </c>
+      <c r="DQ95" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR95" t="n">
+        <v>326</v>
+      </c>
+      <c r="DS95" t="n">
+        <v>60</v>
+      </c>
+      <c r="DT95" t="n">
+        <v>71</v>
+      </c>
+      <c r="DU95" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV95" t="n">
+        <v>15</v>
+      </c>
+      <c r="DW95" t="n">
+        <v>162</v>
+      </c>
+      <c r="DX95" t="n">
+        <v>78</v>
+      </c>
+      <c r="DY95" t="n">
+        <v>155</v>
+      </c>
+      <c r="DZ95" t="n">
+        <v>430</v>
+      </c>
+      <c r="EA95" t="n">
+        <v>326</v>
+      </c>
+      <c r="EB95" t="n">
+        <v>108</v>
+      </c>
+      <c r="EC95" t="n">
+        <v>131</v>
+      </c>
+      <c r="ED95" t="n">
+        <v>58</v>
+      </c>
+      <c r="EE95" t="n">
+        <v>43</v>
+      </c>
+      <c r="EF95" t="n">
+        <v>186</v>
+      </c>
+      <c r="EG95" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH95" t="n">
+        <v>122</v>
+      </c>
+      <c r="EI95" t="n">
+        <v>281</v>
+      </c>
+      <c r="EJ95" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK95" t="n">
+        <v>22</v>
+      </c>
+      <c r="EL95" t="n">
+        <v>57</v>
+      </c>
+      <c r="EM95" t="n">
+        <v>128</v>
+      </c>
+      <c r="EN95" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO95" t="n">
+        <v>65</v>
+      </c>
+      <c r="EP95" t="n">
+        <v>71</v>
+      </c>
+      <c r="EQ95" t="n">
+        <v>82881</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>17499</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2731</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3862</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1419</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1896</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8170</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2208</v>
+      </c>
+      <c r="I96" t="n">
+        <v>573</v>
+      </c>
+      <c r="J96" t="n">
+        <v>903</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1865</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1091</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O96" t="n">
+        <v>81</v>
+      </c>
+      <c r="P96" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>352</v>
+      </c>
+      <c r="R96" t="n">
+        <v>255</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2750</v>
+      </c>
+      <c r="T96" t="n">
+        <v>319</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>249</v>
+      </c>
+      <c r="W96" t="n">
+        <v>189</v>
+      </c>
+      <c r="X96" t="n">
+        <v>229</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>804</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>658</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>106</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>388</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1555</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>1867</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>121</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>211</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>454</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>366</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>107</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>361</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>284</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>318</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>157</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>167</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>485</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>342</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>235</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>423</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>929</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>282</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>492</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>98</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>423</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>154</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF96" t="n">
         <v>46</v>
       </c>
-      <c r="EO94" t="n">
-        <v>53</v>
-      </c>
-      <c r="EP94" t="n">
-        <v>68</v>
-      </c>
-      <c r="EQ94" t="n">
-        <v>76623</v>
+      <c r="BG96" t="n">
+        <v>196</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>136</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>206</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>772</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>231</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>566</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>957</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>279</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>598</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>325</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>462</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>228</v>
+      </c>
+      <c r="BT96" t="n">
+        <v>369</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>153</v>
+      </c>
+      <c r="BV96" t="n">
+        <v>383</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>217</v>
+      </c>
+      <c r="BX96" t="n">
+        <v>452</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>103</v>
+      </c>
+      <c r="BZ96" t="n">
+        <v>1170</v>
+      </c>
+      <c r="CA96" t="n">
+        <v>254</v>
+      </c>
+      <c r="CB96" t="n">
+        <v>328</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>428</v>
+      </c>
+      <c r="CD96" t="n">
+        <v>818</v>
+      </c>
+      <c r="CE96" t="n">
+        <v>66</v>
+      </c>
+      <c r="CF96" t="n">
+        <v>148</v>
+      </c>
+      <c r="CG96" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH96" t="n">
+        <v>871</v>
+      </c>
+      <c r="CI96" t="n">
+        <v>242</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>476</v>
+      </c>
+      <c r="CK96" t="n">
+        <v>292</v>
+      </c>
+      <c r="CL96" t="n">
+        <v>62</v>
+      </c>
+      <c r="CM96" t="n">
+        <v>156</v>
+      </c>
+      <c r="CN96" t="n">
+        <v>176</v>
+      </c>
+      <c r="CO96" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP96" t="n">
+        <v>337</v>
+      </c>
+      <c r="CQ96" t="n">
+        <v>204</v>
+      </c>
+      <c r="CR96" t="n">
+        <v>496</v>
+      </c>
+      <c r="CS96" t="n">
+        <v>299</v>
+      </c>
+      <c r="CT96" t="n">
+        <v>332</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV96" t="n">
+        <v>1127</v>
+      </c>
+      <c r="CW96" t="n">
+        <v>39</v>
+      </c>
+      <c r="CX96" t="n">
+        <v>689</v>
+      </c>
+      <c r="CY96" t="n">
+        <v>55</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>93</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>47</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>99</v>
+      </c>
+      <c r="DC96" t="n">
+        <v>27</v>
+      </c>
+      <c r="DD96" t="n">
+        <v>153</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>175</v>
+      </c>
+      <c r="DF96" t="n">
+        <v>129</v>
+      </c>
+      <c r="DG96" t="n">
+        <v>323</v>
+      </c>
+      <c r="DH96" t="n">
+        <v>109</v>
+      </c>
+      <c r="DI96" t="n">
+        <v>114</v>
+      </c>
+      <c r="DJ96" t="n">
+        <v>244</v>
+      </c>
+      <c r="DK96" t="n">
+        <v>139</v>
+      </c>
+      <c r="DL96" t="n">
+        <v>346</v>
+      </c>
+      <c r="DM96" t="n">
+        <v>19</v>
+      </c>
+      <c r="DN96" t="n">
+        <v>104</v>
+      </c>
+      <c r="DO96" t="n">
+        <v>272</v>
+      </c>
+      <c r="DP96" t="n">
+        <v>626</v>
+      </c>
+      <c r="DQ96" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR96" t="n">
+        <v>327</v>
+      </c>
+      <c r="DS96" t="n">
+        <v>60</v>
+      </c>
+      <c r="DT96" t="n">
+        <v>74</v>
+      </c>
+      <c r="DU96" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV96" t="n">
+        <v>15</v>
+      </c>
+      <c r="DW96" t="n">
+        <v>162</v>
+      </c>
+      <c r="DX96" t="n">
+        <v>78</v>
+      </c>
+      <c r="DY96" t="n">
+        <v>155</v>
+      </c>
+      <c r="DZ96" t="n">
+        <v>430</v>
+      </c>
+      <c r="EA96" t="n">
+        <v>326</v>
+      </c>
+      <c r="EB96" t="n">
+        <v>108</v>
+      </c>
+      <c r="EC96" t="n">
+        <v>137</v>
+      </c>
+      <c r="ED96" t="n">
+        <v>58</v>
+      </c>
+      <c r="EE96" t="n">
+        <v>43</v>
+      </c>
+      <c r="EF96" t="n">
+        <v>195</v>
+      </c>
+      <c r="EG96" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH96" t="n">
+        <v>122</v>
+      </c>
+      <c r="EI96" t="n">
+        <v>285</v>
+      </c>
+      <c r="EJ96" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK96" t="n">
+        <v>22</v>
+      </c>
+      <c r="EL96" t="n">
+        <v>57</v>
+      </c>
+      <c r="EM96" t="n">
+        <v>128</v>
+      </c>
+      <c r="EN96" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO96" t="n">
+        <v>71</v>
+      </c>
+      <c r="EP96" t="n">
+        <v>85</v>
+      </c>
+      <c r="EQ96" t="n">
+        <v>84654</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>17581</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2888</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3877</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1946</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8389</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2209</v>
+      </c>
+      <c r="I97" t="n">
+        <v>574</v>
+      </c>
+      <c r="J97" t="n">
+        <v>903</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1896</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1098</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1203</v>
+      </c>
+      <c r="O97" t="n">
+        <v>82</v>
+      </c>
+      <c r="P97" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>355</v>
+      </c>
+      <c r="R97" t="n">
+        <v>255</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2902</v>
+      </c>
+      <c r="T97" t="n">
+        <v>319</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>263</v>
+      </c>
+      <c r="W97" t="n">
+        <v>190</v>
+      </c>
+      <c r="X97" t="n">
+        <v>229</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>804</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>659</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>390</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1591</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1876</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>121</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>211</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>466</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>111</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>366</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>108</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>369</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>286</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>321</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>157</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>167</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>485</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>343</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>235</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>425</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>929</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>282</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>557</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>102</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>423</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>154</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>46</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>196</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>137</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>206</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>773</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>232</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>569</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>957</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>281</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>729</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>325</v>
+      </c>
+      <c r="BQ97" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>462</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>242</v>
+      </c>
+      <c r="BT97" t="n">
+        <v>372</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>153</v>
+      </c>
+      <c r="BV97" t="n">
+        <v>383</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>229</v>
+      </c>
+      <c r="BX97" t="n">
+        <v>452</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>103</v>
+      </c>
+      <c r="BZ97" t="n">
+        <v>1170</v>
+      </c>
+      <c r="CA97" t="n">
+        <v>254</v>
+      </c>
+      <c r="CB97" t="n">
+        <v>389</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>428</v>
+      </c>
+      <c r="CD97" t="n">
+        <v>818</v>
+      </c>
+      <c r="CE97" t="n">
+        <v>66</v>
+      </c>
+      <c r="CF97" t="n">
+        <v>148</v>
+      </c>
+      <c r="CG97" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH97" t="n">
+        <v>871</v>
+      </c>
+      <c r="CI97" t="n">
+        <v>244</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>476</v>
+      </c>
+      <c r="CK97" t="n">
+        <v>294</v>
+      </c>
+      <c r="CL97" t="n">
+        <v>62</v>
+      </c>
+      <c r="CM97" t="n">
+        <v>157</v>
+      </c>
+      <c r="CN97" t="n">
+        <v>176</v>
+      </c>
+      <c r="CO97" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP97" t="n">
+        <v>337</v>
+      </c>
+      <c r="CQ97" t="n">
+        <v>207</v>
+      </c>
+      <c r="CR97" t="n">
+        <v>496</v>
+      </c>
+      <c r="CS97" t="n">
+        <v>299</v>
+      </c>
+      <c r="CT97" t="n">
+        <v>333</v>
+      </c>
+      <c r="CU97" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV97" t="n">
+        <v>1127</v>
+      </c>
+      <c r="CW97" t="n">
+        <v>39</v>
+      </c>
+      <c r="CX97" t="n">
+        <v>789</v>
+      </c>
+      <c r="CY97" t="n">
+        <v>55</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>94</v>
+      </c>
+      <c r="DA97" t="n">
+        <v>47</v>
+      </c>
+      <c r="DB97" t="n">
+        <v>99</v>
+      </c>
+      <c r="DC97" t="n">
+        <v>28</v>
+      </c>
+      <c r="DD97" t="n">
+        <v>153</v>
+      </c>
+      <c r="DE97" t="n">
+        <v>175</v>
+      </c>
+      <c r="DF97" t="n">
+        <v>129</v>
+      </c>
+      <c r="DG97" t="n">
+        <v>329</v>
+      </c>
+      <c r="DH97" t="n">
+        <v>109</v>
+      </c>
+      <c r="DI97" t="n">
+        <v>114</v>
+      </c>
+      <c r="DJ97" t="n">
+        <v>289</v>
+      </c>
+      <c r="DK97" t="n">
+        <v>139</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>346</v>
+      </c>
+      <c r="DM97" t="n">
+        <v>19</v>
+      </c>
+      <c r="DN97" t="n">
+        <v>104</v>
+      </c>
+      <c r="DO97" t="n">
+        <v>287</v>
+      </c>
+      <c r="DP97" t="n">
+        <v>636</v>
+      </c>
+      <c r="DQ97" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR97" t="n">
+        <v>339</v>
+      </c>
+      <c r="DS97" t="n">
+        <v>60</v>
+      </c>
+      <c r="DT97" t="n">
+        <v>74</v>
+      </c>
+      <c r="DU97" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV97" t="n">
+        <v>15</v>
+      </c>
+      <c r="DW97" t="n">
+        <v>162</v>
+      </c>
+      <c r="DX97" t="n">
+        <v>78</v>
+      </c>
+      <c r="DY97" t="n">
+        <v>166</v>
+      </c>
+      <c r="DZ97" t="n">
+        <v>430</v>
+      </c>
+      <c r="EA97" t="n">
+        <v>326</v>
+      </c>
+      <c r="EB97" t="n">
+        <v>108</v>
+      </c>
+      <c r="EC97" t="n">
+        <v>139</v>
+      </c>
+      <c r="ED97" t="n">
+        <v>58</v>
+      </c>
+      <c r="EE97" t="n">
+        <v>43</v>
+      </c>
+      <c r="EF97" t="n">
+        <v>195</v>
+      </c>
+      <c r="EG97" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH97" t="n">
+        <v>131</v>
+      </c>
+      <c r="EI97" t="n">
+        <v>296</v>
+      </c>
+      <c r="EJ97" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK97" t="n">
+        <v>22</v>
+      </c>
+      <c r="EL97" t="n">
+        <v>57</v>
+      </c>
+      <c r="EM97" t="n">
+        <v>128</v>
+      </c>
+      <c r="EN97" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO97" t="n">
+        <v>72</v>
+      </c>
+      <c r="EP97" t="n">
+        <v>85</v>
+      </c>
+      <c r="EQ97" t="n">
+        <v>86020</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>17581</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2888</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3877</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1946</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8389</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2209</v>
+      </c>
+      <c r="I98" t="n">
+        <v>574</v>
+      </c>
+      <c r="J98" t="n">
+        <v>903</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1896</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1098</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1203</v>
+      </c>
+      <c r="O98" t="n">
+        <v>82</v>
+      </c>
+      <c r="P98" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>355</v>
+      </c>
+      <c r="R98" t="n">
+        <v>255</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2902</v>
+      </c>
+      <c r="T98" t="n">
+        <v>319</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2616</v>
+      </c>
+      <c r="V98" t="n">
+        <v>263</v>
+      </c>
+      <c r="W98" t="n">
+        <v>190</v>
+      </c>
+      <c r="X98" t="n">
+        <v>229</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>804</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>659</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>390</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1591</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>1876</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>121</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>211</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>466</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>111</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>366</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>108</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>369</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>286</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>321</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>157</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>167</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>485</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>343</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>235</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>425</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>929</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>282</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>557</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>102</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>423</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>154</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>503</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>46</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>196</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>137</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>206</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>773</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>232</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>569</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>957</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>281</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>729</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>325</v>
+      </c>
+      <c r="BQ98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>462</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>242</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>372</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>153</v>
+      </c>
+      <c r="BV98" t="n">
+        <v>383</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>229</v>
+      </c>
+      <c r="BX98" t="n">
+        <v>452</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>103</v>
+      </c>
+      <c r="BZ98" t="n">
+        <v>1170</v>
+      </c>
+      <c r="CA98" t="n">
+        <v>254</v>
+      </c>
+      <c r="CB98" t="n">
+        <v>389</v>
+      </c>
+      <c r="CC98" t="n">
+        <v>428</v>
+      </c>
+      <c r="CD98" t="n">
+        <v>818</v>
+      </c>
+      <c r="CE98" t="n">
+        <v>66</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>148</v>
+      </c>
+      <c r="CG98" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH98" t="n">
+        <v>871</v>
+      </c>
+      <c r="CI98" t="n">
+        <v>244</v>
+      </c>
+      <c r="CJ98" t="n">
+        <v>476</v>
+      </c>
+      <c r="CK98" t="n">
+        <v>294</v>
+      </c>
+      <c r="CL98" t="n">
+        <v>62</v>
+      </c>
+      <c r="CM98" t="n">
+        <v>157</v>
+      </c>
+      <c r="CN98" t="n">
+        <v>176</v>
+      </c>
+      <c r="CO98" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP98" t="n">
+        <v>337</v>
+      </c>
+      <c r="CQ98" t="n">
+        <v>207</v>
+      </c>
+      <c r="CR98" t="n">
+        <v>496</v>
+      </c>
+      <c r="CS98" t="n">
+        <v>299</v>
+      </c>
+      <c r="CT98" t="n">
+        <v>333</v>
+      </c>
+      <c r="CU98" t="n">
+        <v>90</v>
+      </c>
+      <c r="CV98" t="n">
+        <v>1127</v>
+      </c>
+      <c r="CW98" t="n">
+        <v>39</v>
+      </c>
+      <c r="CX98" t="n">
+        <v>789</v>
+      </c>
+      <c r="CY98" t="n">
+        <v>55</v>
+      </c>
+      <c r="CZ98" t="n">
+        <v>94</v>
+      </c>
+      <c r="DA98" t="n">
+        <v>47</v>
+      </c>
+      <c r="DB98" t="n">
+        <v>99</v>
+      </c>
+      <c r="DC98" t="n">
+        <v>28</v>
+      </c>
+      <c r="DD98" t="n">
+        <v>153</v>
+      </c>
+      <c r="DE98" t="n">
+        <v>175</v>
+      </c>
+      <c r="DF98" t="n">
+        <v>129</v>
+      </c>
+      <c r="DG98" t="n">
+        <v>329</v>
+      </c>
+      <c r="DH98" t="n">
+        <v>109</v>
+      </c>
+      <c r="DI98" t="n">
+        <v>114</v>
+      </c>
+      <c r="DJ98" t="n">
+        <v>289</v>
+      </c>
+      <c r="DK98" t="n">
+        <v>139</v>
+      </c>
+      <c r="DL98" t="n">
+        <v>346</v>
+      </c>
+      <c r="DM98" t="n">
+        <v>19</v>
+      </c>
+      <c r="DN98" t="n">
+        <v>104</v>
+      </c>
+      <c r="DO98" t="n">
+        <v>287</v>
+      </c>
+      <c r="DP98" t="n">
+        <v>636</v>
+      </c>
+      <c r="DQ98" t="n">
+        <v>192</v>
+      </c>
+      <c r="DR98" t="n">
+        <v>339</v>
+      </c>
+      <c r="DS98" t="n">
+        <v>60</v>
+      </c>
+      <c r="DT98" t="n">
+        <v>74</v>
+      </c>
+      <c r="DU98" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV98" t="n">
+        <v>15</v>
+      </c>
+      <c r="DW98" t="n">
+        <v>162</v>
+      </c>
+      <c r="DX98" t="n">
+        <v>78</v>
+      </c>
+      <c r="DY98" t="n">
+        <v>166</v>
+      </c>
+      <c r="DZ98" t="n">
+        <v>430</v>
+      </c>
+      <c r="EA98" t="n">
+        <v>326</v>
+      </c>
+      <c r="EB98" t="n">
+        <v>108</v>
+      </c>
+      <c r="EC98" t="n">
+        <v>139</v>
+      </c>
+      <c r="ED98" t="n">
+        <v>58</v>
+      </c>
+      <c r="EE98" t="n">
+        <v>43</v>
+      </c>
+      <c r="EF98" t="n">
+        <v>195</v>
+      </c>
+      <c r="EG98" t="n">
+        <v>24</v>
+      </c>
+      <c r="EH98" t="n">
+        <v>131</v>
+      </c>
+      <c r="EI98" t="n">
+        <v>296</v>
+      </c>
+      <c r="EJ98" t="n">
+        <v>16</v>
+      </c>
+      <c r="EK98" t="n">
+        <v>22</v>
+      </c>
+      <c r="EL98" t="n">
+        <v>57</v>
+      </c>
+      <c r="EM98" t="n">
+        <v>128</v>
+      </c>
+      <c r="EN98" t="n">
+        <v>58</v>
+      </c>
+      <c r="EO98" t="n">
+        <v>72</v>
+      </c>
+      <c r="EP98" t="n">
+        <v>85</v>
+      </c>
+      <c r="EQ98" t="n">
+        <v>88636</v>
       </c>
     </row>
   </sheetData>
